--- a/tests/WCAG_ayuntamientos_formatted_check.xlsx
+++ b/tests/WCAG_ayuntamientos_formatted_check.xlsx
@@ -2132,7 +2132,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2.3: Audio Description or Media Alternative (Prerecorded)</t>
+          <t>1.2.3 Audio Description or Media Alternative (Prerecorded)</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.2.5: Audio Description (Prerecorded)</t>
+          <t>1.2.5 Audio Description (Prerecorded)</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.2.8  Media Alternative (Prerecorded)</t>
+          <t>1.2.8 Media Alternative (Prerecorded)</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.3.6 Identify Purpose</t>
+          <t>1.3.5 Identify Input Purpose</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3.6 Identify Purpose</t>
+          <t xml:space="preserve">1.3.6 Identify Purpose </t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.4.1: Use of Color</t>
+          <t>1.4.1 Use of Color</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -15341,7 +15341,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2.4.9: Link Purpose (Link Only)</t>
+          <t>2.4.4: Link Purpose (In Context)</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -19517,7 +19517,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3.1.1: Language of Page</t>
+          <t>3.1.1 Language of Page</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -20705,7 +20705,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3.1.5 Reading Level</t>
+          <t>3.1.5: Reading Level</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -21998,7 +21998,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3.2.4: Consistent Identification</t>
+          <t>3.2.3: Consistent Navigation</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -24986,7 +24986,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>4.1.1: Parsing(Obsolete and removed)</t>
+          <t>4.1.1 Parsing(Obsolete and removed)</t>
         </is>
       </c>
       <c r="D94" t="n">
